--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mmp13</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>3.06213742178176</v>
+        <v>0.07212200000000001</v>
       </c>
       <c r="H2">
-        <v>3.06213742178176</v>
+        <v>0.144244</v>
       </c>
       <c r="I2">
-        <v>0.3650125356591266</v>
+        <v>0.005750852347651393</v>
       </c>
       <c r="J2">
-        <v>0.3650125356591266</v>
+        <v>0.003893167052423372</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>5.601555456344356</v>
+        <v>0.145617635612</v>
       </c>
       <c r="R2">
-        <v>5.601555456344356</v>
+        <v>0.582470542448</v>
       </c>
       <c r="S2">
-        <v>0.001356564192845075</v>
+        <v>2.286167001671711E-05</v>
       </c>
       <c r="T2">
-        <v>0.001356564192845075</v>
+        <v>1.053902721188511E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>3.06213742178176</v>
+        <v>0.07212200000000001</v>
       </c>
       <c r="H3">
-        <v>3.06213742178176</v>
+        <v>0.144244</v>
       </c>
       <c r="I3">
-        <v>0.3650125356591266</v>
+        <v>0.005750852347651393</v>
       </c>
       <c r="J3">
-        <v>0.3650125356591266</v>
+        <v>0.003893167052423372</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>402.7065023966808</v>
+        <v>10.07506956763333</v>
       </c>
       <c r="R3">
-        <v>402.7065023966808</v>
+        <v>60.4504174058</v>
       </c>
       <c r="S3">
-        <v>0.09752598642194586</v>
+        <v>0.001581765250360381</v>
       </c>
       <c r="T3">
-        <v>0.09752598642194586</v>
+        <v>0.001093769637400016</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>3.06213742178176</v>
+        <v>0.07212200000000001</v>
       </c>
       <c r="H4">
-        <v>3.06213742178176</v>
+        <v>0.144244</v>
       </c>
       <c r="I4">
-        <v>0.3650125356591266</v>
+        <v>0.005750852347651393</v>
       </c>
       <c r="J4">
-        <v>0.3650125356591266</v>
+        <v>0.003893167052423372</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>564.1270401263404</v>
+        <v>13.44028475614734</v>
       </c>
       <c r="R4">
-        <v>564.1270401263404</v>
+        <v>80.64170853688401</v>
       </c>
       <c r="S4">
-        <v>0.1366182212807186</v>
+        <v>0.002110097130298636</v>
       </c>
       <c r="T4">
-        <v>0.1366182212807186</v>
+        <v>0.001459104106984092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>3.06213742178176</v>
+        <v>0.07212200000000001</v>
       </c>
       <c r="H5">
-        <v>3.06213742178176</v>
+        <v>0.144244</v>
       </c>
       <c r="I5">
-        <v>0.3650125356591266</v>
+        <v>0.005750852347651393</v>
       </c>
       <c r="J5">
-        <v>0.3650125356591266</v>
+        <v>0.003893167052423372</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>427.8549753455098</v>
+        <v>10.35709418631867</v>
       </c>
       <c r="R5">
-        <v>427.8549753455098</v>
+        <v>62.14256511791201</v>
       </c>
       <c r="S5">
-        <v>0.1036163515308863</v>
+        <v>0.001626042536843415</v>
       </c>
       <c r="T5">
-        <v>0.1036163515308863</v>
+        <v>0.001124386792234193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>3.06213742178176</v>
+        <v>0.07212200000000001</v>
       </c>
       <c r="H6">
-        <v>3.06213742178176</v>
+        <v>0.144244</v>
       </c>
       <c r="I6">
-        <v>0.3650125356591266</v>
+        <v>0.005750852347651393</v>
       </c>
       <c r="J6">
-        <v>0.3650125356591266</v>
+        <v>0.003893167052423372</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>15.18433600081204</v>
+        <v>0.4510304572706668</v>
       </c>
       <c r="R6">
-        <v>15.18433600081204</v>
+        <v>2.706182743624001</v>
       </c>
       <c r="S6">
-        <v>0.003677286902069313</v>
+        <v>7.081085637927554E-05</v>
       </c>
       <c r="T6">
-        <v>0.003677286902069313</v>
+        <v>4.89647655923019E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>3.06213742178176</v>
+        <v>0.07212200000000001</v>
       </c>
       <c r="H7">
-        <v>3.06213742178176</v>
+        <v>0.144244</v>
       </c>
       <c r="I7">
-        <v>0.3650125356591266</v>
+        <v>0.005750852347651393</v>
       </c>
       <c r="J7">
-        <v>0.3650125356591266</v>
+        <v>0.003893167052423372</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>91.74358414598306</v>
+        <v>2.161014889589</v>
       </c>
       <c r="R7">
-        <v>91.74358414598306</v>
+        <v>8.644059558356</v>
       </c>
       <c r="S7">
-        <v>0.0222181253306615</v>
+        <v>0.0003392749037529681</v>
       </c>
       <c r="T7">
-        <v>0.0222181253306615</v>
+        <v>0.0001564027230008845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>5.32699205359985</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H8">
-        <v>5.32699205359985</v>
+        <v>1.021675</v>
       </c>
       <c r="I8">
-        <v>0.6349874643408734</v>
+        <v>0.02715538519123492</v>
       </c>
       <c r="J8">
-        <v>0.6349874643408734</v>
+        <v>0.02757516048005219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>9.744644767243217</v>
+        <v>0.6876029406833333</v>
       </c>
       <c r="R8">
-        <v>9.744644767243217</v>
+        <v>4.125617644099999</v>
       </c>
       <c r="S8">
-        <v>0.002359922394103068</v>
+        <v>0.0001079522508819752</v>
       </c>
       <c r="T8">
-        <v>0.002359922394103068</v>
+        <v>7.46475460102515E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>5.32699205359985</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H9">
-        <v>5.32699205359985</v>
+        <v>1.021675</v>
       </c>
       <c r="I9">
-        <v>0.6349874643408734</v>
+        <v>0.02715538519123492</v>
       </c>
       <c r="J9">
-        <v>0.6349874643408734</v>
+        <v>0.02757516048005219</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>700.5610926997116</v>
+        <v>47.57423393930554</v>
       </c>
       <c r="R9">
-        <v>700.5610926997116</v>
+        <v>428.1681054537499</v>
       </c>
       <c r="S9">
-        <v>0.1696593206411031</v>
+        <v>0.007469057116931229</v>
       </c>
       <c r="T9">
-        <v>0.1696593206411031</v>
+        <v>0.007747130516975826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>5.32699205359985</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H10">
-        <v>5.32699205359985</v>
+        <v>1.021675</v>
       </c>
       <c r="I10">
-        <v>0.6349874643408734</v>
+        <v>0.02715538519123492</v>
       </c>
       <c r="J10">
-        <v>0.6349874643408734</v>
+        <v>0.02757516048005219</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>981.3734153790025</v>
+        <v>63.46469837329722</v>
       </c>
       <c r="R10">
-        <v>981.3734153790025</v>
+        <v>571.182285359675</v>
       </c>
       <c r="S10">
-        <v>0.2376654208797302</v>
+        <v>0.009963827429438349</v>
       </c>
       <c r="T10">
-        <v>0.2376654208797302</v>
+        <v>0.01033478126301941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>5.32699205359985</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H11">
-        <v>5.32699205359985</v>
+        <v>1.021675</v>
       </c>
       <c r="I11">
-        <v>0.6349874643408734</v>
+        <v>0.02715538519123492</v>
       </c>
       <c r="J11">
-        <v>0.6349874643408734</v>
+        <v>0.02757516048005219</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>744.3101794015856</v>
+        <v>48.90594734296111</v>
       </c>
       <c r="R11">
-        <v>744.3101794015856</v>
+        <v>440.1535260866499</v>
       </c>
       <c r="S11">
-        <v>0.1802543142909863</v>
+        <v>0.007678133388931238</v>
       </c>
       <c r="T11">
-        <v>0.1802543142909863</v>
+        <v>0.007963990709879572</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>5.32699205359985</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H12">
-        <v>5.32699205359985</v>
+        <v>1.021675</v>
       </c>
       <c r="I12">
-        <v>0.6349874643408734</v>
+        <v>0.02715538519123492</v>
       </c>
       <c r="J12">
-        <v>0.6349874643408734</v>
+        <v>0.02757516048005219</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>26.4151558451124</v>
+        <v>2.129754871061111</v>
       </c>
       <c r="R12">
-        <v>26.4151558451124</v>
+        <v>19.16779383955</v>
       </c>
       <c r="S12">
-        <v>0.006397125735373398</v>
+        <v>0.0003343671449825589</v>
       </c>
       <c r="T12">
-        <v>0.006397125735373398</v>
+        <v>0.0003468156518573738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3405583333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.021675</v>
+      </c>
+      <c r="I13">
+        <v>0.02715538519123492</v>
+      </c>
+      <c r="J13">
+        <v>0.02757516048005219</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.9633245</v>
+      </c>
+      <c r="N13">
+        <v>59.926649</v>
+      </c>
+      <c r="O13">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P13">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q13">
+        <v>10.20425985284583</v>
+      </c>
+      <c r="R13">
+        <v>61.22555911707499</v>
+      </c>
+      <c r="S13">
+        <v>0.001602047860069575</v>
+      </c>
+      <c r="T13">
+        <v>0.001107794792309757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.76722</v>
+      </c>
+      <c r="H14">
+        <v>14.30166</v>
+      </c>
+      <c r="I14">
+        <v>0.3801278157673202</v>
+      </c>
+      <c r="J14">
+        <v>0.3860039343540199</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.019046</v>
+      </c>
+      <c r="N14">
+        <v>4.038092</v>
+      </c>
+      <c r="O14">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P14">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q14">
+        <v>9.625236472119999</v>
+      </c>
+      <c r="R14">
+        <v>57.75141883272</v>
+      </c>
+      <c r="S14">
+        <v>0.001511142377320292</v>
+      </c>
+      <c r="T14">
+        <v>0.001044934859787089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.76722</v>
+      </c>
+      <c r="H15">
+        <v>14.30166</v>
+      </c>
+      <c r="I15">
+        <v>0.3801278157673202</v>
+      </c>
+      <c r="J15">
+        <v>0.3860039343540199</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N15">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P15">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q15">
+        <v>665.9559239096666</v>
+      </c>
+      <c r="R15">
+        <v>5993.603315187</v>
+      </c>
+      <c r="S15">
+        <v>0.1045537136632791</v>
+      </c>
+      <c r="T15">
+        <v>0.1084462540723934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.76722</v>
+      </c>
+      <c r="H16">
+        <v>14.30166</v>
+      </c>
+      <c r="I16">
+        <v>0.3801278157673202</v>
+      </c>
+      <c r="J16">
+        <v>0.3860039343540199</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N16">
+        <v>559.064561</v>
+      </c>
+      <c r="O16">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P16">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q16">
+        <v>888.3945854968067</v>
+      </c>
+      <c r="R16">
+        <v>7995.551269471261</v>
+      </c>
+      <c r="S16">
+        <v>0.1394761271387685</v>
+      </c>
+      <c r="T16">
+        <v>0.1446688308885645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.32699205359985</v>
-      </c>
-      <c r="H13">
-        <v>5.32699205359985</v>
-      </c>
-      <c r="I13">
-        <v>0.6349874643408734</v>
-      </c>
-      <c r="J13">
-        <v>0.6349874643408734</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="N13">
-        <v>29.9606358269187</v>
-      </c>
-      <c r="O13">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="P13">
-        <v>0.06086948573023884</v>
-      </c>
-      <c r="Q13">
-        <v>159.6000689707949</v>
-      </c>
-      <c r="R13">
-        <v>159.6000689707949</v>
-      </c>
-      <c r="S13">
-        <v>0.03865136039957734</v>
-      </c>
-      <c r="T13">
-        <v>0.03865136039957734</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.76722</v>
+      </c>
+      <c r="H17">
+        <v>14.30166</v>
+      </c>
+      <c r="I17">
+        <v>0.3801278157673202</v>
+      </c>
+      <c r="J17">
+        <v>0.3860039343540199</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N17">
+        <v>430.815598</v>
+      </c>
+      <c r="O17">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P17">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q17">
+        <v>684.5975783658533</v>
+      </c>
+      <c r="R17">
+        <v>6161.37820529268</v>
+      </c>
+      <c r="S17">
+        <v>0.1074804151644528</v>
+      </c>
+      <c r="T17">
+        <v>0.1114819168285965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.76722</v>
+      </c>
+      <c r="H18">
+        <v>14.30166</v>
+      </c>
+      <c r="I18">
+        <v>0.3801278157673202</v>
+      </c>
+      <c r="J18">
+        <v>0.3860039343540199</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N18">
+        <v>18.761146</v>
+      </c>
+      <c r="O18">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P18">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q18">
+        <v>29.81283681137334</v>
+      </c>
+      <c r="R18">
+        <v>268.3155313023601</v>
+      </c>
+      <c r="S18">
+        <v>0.004680554210205068</v>
+      </c>
+      <c r="T18">
+        <v>0.00485481149635895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.76722</v>
+      </c>
+      <c r="H19">
+        <v>14.30166</v>
+      </c>
+      <c r="I19">
+        <v>0.3801278157673202</v>
+      </c>
+      <c r="J19">
+        <v>0.3860039343540199</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.9633245</v>
+      </c>
+      <c r="N19">
+        <v>59.926649</v>
+      </c>
+      <c r="O19">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P19">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q19">
+        <v>142.84175982289</v>
+      </c>
+      <c r="R19">
+        <v>857.0505589373399</v>
+      </c>
+      <c r="S19">
+        <v>0.02242586321329448</v>
+      </c>
+      <c r="T19">
+        <v>0.01550718620831944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.356480333333333</v>
+      </c>
+      <c r="H20">
+        <v>19.069441</v>
+      </c>
+      <c r="I20">
+        <v>0.5068519986654544</v>
+      </c>
+      <c r="J20">
+        <v>0.5146870539456156</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.019046</v>
+      </c>
+      <c r="N20">
+        <v>4.038092</v>
+      </c>
+      <c r="O20">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P20">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q20">
+        <v>12.83402619109533</v>
+      </c>
+      <c r="R20">
+        <v>77.00415714657198</v>
+      </c>
+      <c r="S20">
+        <v>0.002014915779490566</v>
+      </c>
+      <c r="T20">
+        <v>0.001393287468556318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.356480333333333</v>
+      </c>
+      <c r="H21">
+        <v>19.069441</v>
+      </c>
+      <c r="I21">
+        <v>0.5068519986654544</v>
+      </c>
+      <c r="J21">
+        <v>0.5146870539456156</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N21">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O21">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P21">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q21">
+        <v>887.967354810272</v>
+      </c>
+      <c r="R21">
+        <v>7991.706193292448</v>
+      </c>
+      <c r="S21">
+        <v>0.139409052797563</v>
+      </c>
+      <c r="T21">
+        <v>0.1445992593660117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.356480333333333</v>
+      </c>
+      <c r="H22">
+        <v>19.069441</v>
+      </c>
+      <c r="I22">
+        <v>0.5068519986654544</v>
+      </c>
+      <c r="J22">
+        <v>0.5146870539456156</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N22">
+        <v>559.064561</v>
+      </c>
+      <c r="O22">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P22">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q22">
+        <v>1184.560962353378</v>
+      </c>
+      <c r="R22">
+        <v>10661.0486611804</v>
+      </c>
+      <c r="S22">
+        <v>0.1859736406390058</v>
+      </c>
+      <c r="T22">
+        <v>0.1928974493288512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.356480333333333</v>
+      </c>
+      <c r="H23">
+        <v>19.069441</v>
+      </c>
+      <c r="I23">
+        <v>0.5068519986654544</v>
+      </c>
+      <c r="J23">
+        <v>0.5146870539456156</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N23">
+        <v>430.815598</v>
+      </c>
+      <c r="O23">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P23">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q23">
+        <v>912.8236253267463</v>
+      </c>
+      <c r="R23">
+        <v>8215.412627940717</v>
+      </c>
+      <c r="S23">
+        <v>0.143311436269219</v>
+      </c>
+      <c r="T23">
+        <v>0.1486469287851779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.356480333333333</v>
+      </c>
+      <c r="H24">
+        <v>19.069441</v>
+      </c>
+      <c r="I24">
+        <v>0.5068519986654544</v>
+      </c>
+      <c r="J24">
+        <v>0.5146870539456156</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N24">
+        <v>18.761146</v>
+      </c>
+      <c r="O24">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P24">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q24">
+        <v>39.75161852659845</v>
+      </c>
+      <c r="R24">
+        <v>357.764566739386</v>
+      </c>
+      <c r="S24">
+        <v>0.006240922547369126</v>
+      </c>
+      <c r="T24">
+        <v>0.006473272431028195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.356480333333333</v>
+      </c>
+      <c r="H25">
+        <v>19.069441</v>
+      </c>
+      <c r="I25">
+        <v>0.5068519986654544</v>
+      </c>
+      <c r="J25">
+        <v>0.5146870539456156</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.9633245</v>
+      </c>
+      <c r="N25">
+        <v>59.926649</v>
+      </c>
+      <c r="O25">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P25">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q25">
+        <v>190.4612829055348</v>
+      </c>
+      <c r="R25">
+        <v>1142.767697433209</v>
+      </c>
+      <c r="S25">
+        <v>0.02990203063280692</v>
+      </c>
+      <c r="T25">
+        <v>0.02067685656599033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5041013333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.512304</v>
+      </c>
+      <c r="I26">
+        <v>0.04019595042087292</v>
+      </c>
+      <c r="J26">
+        <v>0.04081731029400235</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.019046</v>
+      </c>
+      <c r="N26">
+        <v>4.038092</v>
+      </c>
+      <c r="O26">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P26">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q26">
+        <v>1.017803780661333</v>
+      </c>
+      <c r="R26">
+        <v>6.106822683967999</v>
+      </c>
+      <c r="S26">
+        <v>0.0001597931052612765</v>
+      </c>
+      <c r="T26">
+        <v>0.0001104948074695842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.5041013333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.512304</v>
+      </c>
+      <c r="I27">
+        <v>0.04019595042087292</v>
+      </c>
+      <c r="J27">
+        <v>0.04081731029400235</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N27">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P27">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q27">
+        <v>70.4203433414222</v>
+      </c>
+      <c r="R27">
+        <v>633.7830900727998</v>
+      </c>
+      <c r="S27">
+        <v>0.01105584941802781</v>
+      </c>
+      <c r="T27">
+        <v>0.01146745928925011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.5041013333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.512304</v>
+      </c>
+      <c r="I28">
+        <v>0.04019595042087292</v>
+      </c>
+      <c r="J28">
+        <v>0.04081731029400235</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N28">
+        <v>559.064561</v>
+      </c>
+      <c r="O28">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P28">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q28">
+        <v>93.94173020650489</v>
+      </c>
+      <c r="R28">
+        <v>845.475571858544</v>
+      </c>
+      <c r="S28">
+        <v>0.01474865889529384</v>
+      </c>
+      <c r="T28">
+        <v>0.01529775226289114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.5041013333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.512304</v>
+      </c>
+      <c r="I29">
+        <v>0.04019595042087292</v>
+      </c>
+      <c r="J29">
+        <v>0.04081731029400235</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N29">
+        <v>430.815598</v>
+      </c>
+      <c r="O29">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P29">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q29">
+        <v>72.39157245753243</v>
+      </c>
+      <c r="R29">
+        <v>651.524152117792</v>
+      </c>
+      <c r="S29">
+        <v>0.01136532834474199</v>
+      </c>
+      <c r="T29">
+        <v>0.01178846013312816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.5041013333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.512304</v>
+      </c>
+      <c r="I30">
+        <v>0.04019595042087292</v>
+      </c>
+      <c r="J30">
+        <v>0.04081731029400235</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N30">
+        <v>18.761146</v>
+      </c>
+      <c r="O30">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P30">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q30">
+        <v>3.152506237820445</v>
+      </c>
+      <c r="R30">
+        <v>28.372556140384</v>
+      </c>
+      <c r="S30">
+        <v>0.0004949370111098966</v>
+      </c>
+      <c r="T30">
+        <v>0.0005133635427768263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.5041013333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.512304</v>
+      </c>
+      <c r="I31">
+        <v>0.04019595042087292</v>
+      </c>
+      <c r="J31">
+        <v>0.04081731029400235</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.9633245</v>
+      </c>
+      <c r="N31">
+        <v>59.926649</v>
+      </c>
+      <c r="O31">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P31">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q31">
+        <v>15.10455183154933</v>
+      </c>
+      <c r="R31">
+        <v>90.62731098929599</v>
+      </c>
+      <c r="S31">
+        <v>0.002371383646438112</v>
+      </c>
+      <c r="T31">
+        <v>0.00163978025848652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.5006155</v>
+      </c>
+      <c r="H32">
+        <v>1.001231</v>
+      </c>
+      <c r="I32">
+        <v>0.03991799760746617</v>
+      </c>
+      <c r="J32">
+        <v>0.02702337387388664</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.019046</v>
+      </c>
+      <c r="N32">
+        <v>4.038092</v>
+      </c>
+      <c r="O32">
+        <v>0.003975353327590414</v>
+      </c>
+      <c r="P32">
+        <v>0.002707057536954368</v>
+      </c>
+      <c r="Q32">
+        <v>1.010765722813</v>
+      </c>
+      <c r="R32">
+        <v>4.043062891252</v>
+      </c>
+      <c r="S32">
+        <v>0.0001586881446195868</v>
+      </c>
+      <c r="T32">
+        <v>7.315382791924061E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.5006155</v>
+      </c>
+      <c r="H33">
+        <v>1.001231</v>
+      </c>
+      <c r="I33">
+        <v>0.03991799760746617</v>
+      </c>
+      <c r="J33">
+        <v>0.02702337387388664</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>139.6948166666666</v>
+      </c>
+      <c r="N33">
+        <v>419.0844499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2750488370661026</v>
+      </c>
+      <c r="P33">
+        <v>0.2809459811695414</v>
+      </c>
+      <c r="Q33">
+        <v>69.93339049299165</v>
+      </c>
+      <c r="R33">
+        <v>419.6003429579499</v>
+      </c>
+      <c r="S33">
+        <v>0.01097939881994103</v>
+      </c>
+      <c r="T33">
+        <v>0.007592108287510435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.5006155</v>
+      </c>
+      <c r="H34">
+        <v>1.001231</v>
+      </c>
+      <c r="I34">
+        <v>0.03991799760746617</v>
+      </c>
+      <c r="J34">
+        <v>0.02702337387388664</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>186.3548536666667</v>
+      </c>
+      <c r="N34">
+        <v>559.064561</v>
+      </c>
+      <c r="O34">
+        <v>0.3669190239530987</v>
+      </c>
+      <c r="P34">
+        <v>0.3747858972750337</v>
+      </c>
+      <c r="Q34">
+        <v>93.29212824576517</v>
+      </c>
+      <c r="R34">
+        <v>559.752769474591</v>
+      </c>
+      <c r="S34">
+        <v>0.01464667272029362</v>
+      </c>
+      <c r="T34">
+        <v>0.01012797942472331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.5006155</v>
+      </c>
+      <c r="H35">
+        <v>1.001231</v>
+      </c>
+      <c r="I35">
+        <v>0.03991799760746617</v>
+      </c>
+      <c r="J35">
+        <v>0.02702337387388664</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>143.6051993333333</v>
+      </c>
+      <c r="N35">
+        <v>430.815598</v>
+      </c>
+      <c r="O35">
+        <v>0.2827480934208787</v>
+      </c>
+      <c r="P35">
+        <v>0.2888103122968479</v>
+      </c>
+      <c r="Q35">
+        <v>71.89098866685633</v>
+      </c>
+      <c r="R35">
+        <v>431.345932001138</v>
+      </c>
+      <c r="S35">
+        <v>0.01128673771669026</v>
+      </c>
+      <c r="T35">
+        <v>0.007804629047831683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.5006155</v>
+      </c>
+      <c r="H36">
+        <v>1.001231</v>
+      </c>
+      <c r="I36">
+        <v>0.03991799760746617</v>
+      </c>
+      <c r="J36">
+        <v>0.02702337387388664</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.253715333333335</v>
+      </c>
+      <c r="N36">
+        <v>18.761146</v>
+      </c>
+      <c r="O36">
+        <v>0.01231310631861279</v>
+      </c>
+      <c r="P36">
+        <v>0.0125771036621259</v>
+      </c>
+      <c r="Q36">
+        <v>3.130706828454334</v>
+      </c>
+      <c r="R36">
+        <v>18.784240970726</v>
+      </c>
+      <c r="S36">
+        <v>0.0004915145485668618</v>
+      </c>
+      <c r="T36">
+        <v>0.0003398757745122572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.5006155</v>
+      </c>
+      <c r="H37">
+        <v>1.001231</v>
+      </c>
+      <c r="I37">
+        <v>0.03991799760746617</v>
+      </c>
+      <c r="J37">
+        <v>0.02702337387388664</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.9633245</v>
+      </c>
+      <c r="N37">
+        <v>59.926649</v>
+      </c>
+      <c r="O37">
+        <v>0.05899558591371687</v>
+      </c>
+      <c r="P37">
+        <v>0.04017364805949665</v>
+      </c>
+      <c r="Q37">
+        <v>15.00010467622975</v>
+      </c>
+      <c r="R37">
+        <v>60.000418704919</v>
+      </c>
+      <c r="S37">
+        <v>0.002354985657354815</v>
+      </c>
+      <c r="T37">
+        <v>0.001085627511389719</v>
       </c>
     </row>
   </sheetData>
